--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8175" yWindow="0" windowWidth="12675" windowHeight="13185" tabRatio="864" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="14535" windowHeight="10575" tabRatio="864" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="7" r:id="rId1"/>
@@ -12,23 +12,26 @@
     <sheet name="后台管理数据库表结构设计" sheetId="3" r:id="rId3"/>
     <sheet name="场景设计数据库表结构设计" sheetId="8" r:id="rId4"/>
     <sheet name="资源共享平台" sheetId="9" r:id="rId5"/>
-    <sheet name="代码" sheetId="5" r:id="rId6"/>
-    <sheet name="任务管理" sheetId="10" r:id="rId7"/>
+    <sheet name="任务管理" sheetId="10" r:id="rId6"/>
+    <sheet name="代码" sheetId="5" r:id="rId7"/>
+    <sheet name="爬虫管理" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本记录!$A$1:$I$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">场景设计数据库表结构设计!$A$1:$T$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">后台管理数据库表结构设计!$A$1:$M$77</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">任务管理!$A$1:$T$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">爬虫管理!$A$1:$T$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">任务管理!$A$1:$T$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">数据流转表结构设计!$A$1:$R$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">资源共享平台!$A$1:$T$67</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I48"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="399">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -1618,6 +1621,22 @@
   <si>
     <t>create_time</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子网站管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络爬虫表结构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4223,8 +4242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5668,7 +5687,7 @@
   <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6509,7 +6528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A58" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -7080,141 +7099,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="27.25" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
@@ -7786,4 +7670,733 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="21.375" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" customWidth="1"/>
+    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1">
+      <c r="A4"/>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:20" s="58" customFormat="1">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+    </row>
+    <row r="6" spans="1:20" s="34" customFormat="1">
+      <c r="A6" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="D6" s="54"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="B7" s="11"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="B9" s="11"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" s="4" customFormat="1"/>
+    <row r="12" spans="1:20" s="49" customFormat="1">
+      <c r="A12" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="B12" s="56"/>
+    </row>
+    <row r="13" spans="1:20" customFormat="1">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" customFormat="1">
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" customFormat="1">
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" customFormat="1">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:20" customFormat="1"/>
+    <row r="18" spans="1:20" s="6" customFormat="1">
+      <c r="A18" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="1:20" customFormat="1">
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:20" customFormat="1">
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:20" customFormat="1">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:20" customFormat="1">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:20" s="1" customFormat="1"/>
+    <row r="24" spans="1:20" s="4" customFormat="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="55"/>
+      <c r="D24" s="53"/>
+    </row>
+    <row r="25" spans="1:20" customFormat="1">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+    </row>
+    <row r="26" spans="1:20" customFormat="1">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+    </row>
+    <row r="27" spans="1:20" customFormat="1">
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+    </row>
+    <row r="28" spans="1:20" customFormat="1">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+    </row>
+    <row r="29" spans="1:20" s="1" customFormat="1"/>
+    <row r="30" spans="1:20" s="1" customFormat="1"/>
+    <row r="31" spans="1:20" s="49" customFormat="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+    </row>
+    <row r="32" spans="1:20" customFormat="1">
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+    </row>
+    <row r="33" spans="1:20" customFormat="1">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+    </row>
+    <row r="34" spans="1:20" customFormat="1">
+      <c r="B34" s="11"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+    </row>
+    <row r="35" spans="1:20" customFormat="1">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+    </row>
+    <row r="36" spans="1:20" s="58" customFormat="1">
+      <c r="A36" s="57"/>
+    </row>
+    <row r="38" spans="1:20" s="6" customFormat="1">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:20" customFormat="1">
+      <c r="B39" s="11"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:20" customFormat="1">
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:20" customFormat="1">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:20" customFormat="1">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="1:20" customFormat="1"/>
+    <row r="44" spans="1:20" s="6" customFormat="1">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" spans="1:20" customFormat="1">
+      <c r="B45" s="11"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:20" customFormat="1">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:20" customFormat="1">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:20" customFormat="1">
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="50" spans="1:20" s="6" customFormat="1">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+    </row>
+    <row r="51" spans="1:20" customFormat="1">
+      <c r="B51" s="11"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:20" customFormat="1">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:20" customFormat="1">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:20" customFormat="1">
+      <c r="B54" s="10"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:20" customFormat="1"/>
+    <row r="56" spans="1:20" customFormat="1"/>
+    <row r="57" spans="1:20" s="34" customFormat="1">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+    </row>
+    <row r="58" spans="1:20" customFormat="1">
+      <c r="B58" s="11"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="1:20" customFormat="1">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="1:20" customFormat="1">
+      <c r="B60" s="11"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="1:20" customFormat="1">
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="1:20" customFormat="1"/>
+    <row r="63" spans="1:20" customFormat="1">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
+    </row>
+    <row r="64" spans="1:20" customFormat="1">
+      <c r="B64" s="11"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:20" customFormat="1">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:20" customFormat="1">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:20" customFormat="1">
+      <c r="B67" s="10"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:20" customFormat="1"/>
+    <row r="71" spans="1:20" customFormat="1"/>
+    <row r="72" spans="1:20" customFormat="1"/>
+    <row r="73" spans="1:20" customFormat="1"/>
+    <row r="74" spans="1:20" customFormat="1"/>
+    <row r="75" spans="1:20" customFormat="1"/>
+    <row r="77" spans="1:20" customFormat="1"/>
+    <row r="78" spans="1:20" customFormat="1"/>
+    <row r="79" spans="1:20" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C67:D67"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="14535" windowHeight="10575" tabRatio="864" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="14535" windowHeight="10575" tabRatio="864" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="7" r:id="rId1"/>
@@ -13,25 +13,24 @@
     <sheet name="场景设计数据库表结构设计" sheetId="8" r:id="rId4"/>
     <sheet name="资源共享平台" sheetId="9" r:id="rId5"/>
     <sheet name="任务管理" sheetId="10" r:id="rId6"/>
-    <sheet name="代码" sheetId="5" r:id="rId7"/>
-    <sheet name="爬虫管理" sheetId="11" r:id="rId8"/>
+    <sheet name="爬虫管理" sheetId="11" r:id="rId7"/>
+    <sheet name="代码" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本记录!$A$1:$I$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">场景设计数据库表结构设计!$A$1:$T$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">后台管理数据库表结构设计!$A$1:$M$77</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">爬虫管理!$A$1:$T$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">爬虫管理!$A$1:$T$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">任务管理!$A$1:$T$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">数据流转表结构设计!$A$1:$R$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">资源共享平台!$A$1:$T$67</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I48"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="427">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -1636,6 +1635,118 @@
   </si>
   <si>
     <t>网络爬虫表结构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed_Icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed_url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>charset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符集</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站商标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(36)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则类别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>application</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2387,74 +2498,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2471,7 +2514,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4242,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView view="pageBreakPreview" topLeftCell="G4" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5687,7 +5730,7 @@
   <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B13" sqref="B13:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7674,145 +7717,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="27.25" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7839,15 +7747,15 @@
     <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7861,7 +7769,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1">
+    <row r="3" spans="1:15" s="1" customFormat="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7869,56 +7777,159 @@
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1">
+    <row r="4" spans="1:15" s="1" customFormat="1">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:20" s="58" customFormat="1">
+    <row r="5" spans="1:15" s="58" customFormat="1">
       <c r="A5" s="59"/>
       <c r="B5" s="59"/>
     </row>
-    <row r="6" spans="1:20" s="34" customFormat="1">
+    <row r="6" spans="1:15" s="34" customFormat="1">
       <c r="A6" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="52" t="s">
+        <v>399</v>
+      </c>
       <c r="D6" s="54"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="B7" s="11"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="B9" s="11"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="B10" s="10"/>
+    <row r="7" spans="1:15">
+      <c r="B7" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>394</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>392</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -7927,79 +7938,173 @@
       <c r="H10" s="11"/>
       <c r="I10" s="51"/>
       <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" s="4" customFormat="1"/>
-    <row r="12" spans="1:20" s="49" customFormat="1">
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1"/>
+    <row r="12" spans="1:15" s="49" customFormat="1">
       <c r="A12" s="56" t="s">
         <v>396</v>
       </c>
       <c r="B12" s="56"/>
     </row>
-    <row r="13" spans="1:20" customFormat="1">
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:20" customFormat="1">
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
+    <row r="13" spans="1:15">
+      <c r="B13" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>425</v>
+      </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:20" customFormat="1">
-      <c r="B15" s="11"/>
+      <c r="G14" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>394</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>392</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" customFormat="1">
-      <c r="B16" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:20" customFormat="1"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
     <row r="18" spans="1:20" s="6" customFormat="1">
       <c r="A18" s="16" t="s">
         <v>397</v>
       </c>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:20" customFormat="1">
-      <c r="B19" s="11"/>
+    <row r="19" spans="1:20">
+      <c r="B19" s="50" t="s">
+        <v>321</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:20" customFormat="1">
-      <c r="B20" s="11"/>
+    <row r="20" spans="1:20">
+      <c r="B20" s="50" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:20" customFormat="1">
-      <c r="B21" s="11"/>
+    <row r="21" spans="1:20">
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:20" customFormat="1">
-      <c r="B22" s="10"/>
+    <row r="22" spans="1:20">
+      <c r="B22" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
@@ -8012,7 +8117,7 @@
       <c r="B24" s="55"/>
       <c r="D24" s="53"/>
     </row>
-    <row r="25" spans="1:20" customFormat="1">
+    <row r="25" spans="1:20">
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -8029,7 +8134,7 @@
       <c r="O25" s="50"/>
       <c r="P25" s="50"/>
     </row>
-    <row r="26" spans="1:20" customFormat="1">
+    <row r="26" spans="1:20">
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
@@ -8046,7 +8151,7 @@
       <c r="O26" s="50"/>
       <c r="P26" s="50"/>
     </row>
-    <row r="27" spans="1:20" customFormat="1">
+    <row r="27" spans="1:20">
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -8063,7 +8168,7 @@
       <c r="O27" s="51"/>
       <c r="P27" s="51"/>
     </row>
-    <row r="28" spans="1:20" customFormat="1">
+    <row r="28" spans="1:20">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -8086,7 +8191,7 @@
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
     </row>
-    <row r="32" spans="1:20" customFormat="1">
+    <row r="32" spans="1:20">
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
       <c r="D32" s="50"/>
@@ -8107,7 +8212,7 @@
       <c r="S32" s="50"/>
       <c r="T32" s="50"/>
     </row>
-    <row r="33" spans="1:20" customFormat="1">
+    <row r="33" spans="1:20">
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
       <c r="D33" s="50"/>
@@ -8128,7 +8233,7 @@
       <c r="S33" s="50"/>
       <c r="T33" s="50"/>
     </row>
-    <row r="34" spans="1:20" customFormat="1">
+    <row r="34" spans="1:20">
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -8149,7 +8254,7 @@
       <c r="S34" s="51"/>
       <c r="T34" s="51"/>
     </row>
-    <row r="35" spans="1:20" customFormat="1">
+    <row r="35" spans="1:20">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
@@ -8177,7 +8282,7 @@
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
     </row>
-    <row r="39" spans="1:20" customFormat="1">
+    <row r="39" spans="1:20">
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -8186,7 +8291,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:20" customFormat="1">
+    <row r="40" spans="1:20">
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -8195,7 +8300,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:20" customFormat="1">
+    <row r="41" spans="1:20">
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="10"/>
@@ -8204,7 +8309,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:20" customFormat="1">
+    <row r="42" spans="1:20">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -8213,12 +8318,11 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:20" customFormat="1"/>
     <row r="44" spans="1:20" s="6" customFormat="1">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
     </row>
-    <row r="45" spans="1:20" customFormat="1">
+    <row r="45" spans="1:20">
       <c r="B45" s="11"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -8227,7 +8331,7 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:20" customFormat="1">
+    <row r="46" spans="1:20">
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="10"/>
@@ -8236,7 +8340,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:20" customFormat="1">
+    <row r="47" spans="1:20">
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="10"/>
@@ -8245,7 +8349,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:20" customFormat="1">
+    <row r="48" spans="1:20">
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
       <c r="D48" s="10"/>
@@ -8254,11 +8358,11 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="50" spans="1:20" s="6" customFormat="1">
+    <row r="50" spans="1:11" s="6" customFormat="1">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
     </row>
-    <row r="51" spans="1:20" customFormat="1">
+    <row r="51" spans="1:11">
       <c r="B51" s="11"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -8266,7 +8370,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:20" customFormat="1">
+    <row r="52" spans="1:11">
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="10"/>
@@ -8274,7 +8378,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:20" customFormat="1">
+    <row r="53" spans="1:11">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -8282,7 +8386,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:20" customFormat="1">
+    <row r="54" spans="1:11">
       <c r="B54" s="10"/>
       <c r="C54" s="75"/>
       <c r="D54" s="76"/>
@@ -8290,13 +8394,11 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:20" customFormat="1"/>
-    <row r="56" spans="1:20" customFormat="1"/>
-    <row r="57" spans="1:20" s="34" customFormat="1">
+    <row r="57" spans="1:11" s="34" customFormat="1">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
     </row>
-    <row r="58" spans="1:20" customFormat="1">
+    <row r="58" spans="1:11">
       <c r="B58" s="11"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -8308,7 +8410,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:20" customFormat="1">
+    <row r="59" spans="1:11">
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -8320,7 +8422,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:20" customFormat="1">
+    <row r="60" spans="1:11">
       <c r="B60" s="11"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -8332,7 +8434,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:20" customFormat="1">
+    <row r="61" spans="1:11">
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -8344,12 +8446,11 @@
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:20" customFormat="1"/>
-    <row r="63" spans="1:20" customFormat="1">
+    <row r="63" spans="1:11">
       <c r="A63" s="18"/>
       <c r="B63" s="19"/>
     </row>
-    <row r="64" spans="1:20" customFormat="1">
+    <row r="64" spans="1:11">
       <c r="B64" s="11"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -8357,7 +8458,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="1:20" customFormat="1">
+    <row r="65" spans="2:7">
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -8365,7 +8466,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" spans="1:20" customFormat="1">
+    <row r="66" spans="2:7">
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -8373,7 +8474,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:20" customFormat="1">
+    <row r="67" spans="2:7">
       <c r="B67" s="10"/>
       <c r="C67" s="77"/>
       <c r="D67" s="78"/>
@@ -8381,15 +8482,6 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="1:20" customFormat="1"/>
-    <row r="71" spans="1:20" customFormat="1"/>
-    <row r="72" spans="1:20" customFormat="1"/>
-    <row r="73" spans="1:20" customFormat="1"/>
-    <row r="74" spans="1:20" customFormat="1"/>
-    <row r="75" spans="1:20" customFormat="1"/>
-    <row r="77" spans="1:20" customFormat="1"/>
-    <row r="78" spans="1:20" customFormat="1"/>
-    <row r="79" spans="1:20" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C54:D54"/>
@@ -8399,4 +8491,139 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -4,33 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="14535" windowHeight="10575" tabRatio="864" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="14535" windowHeight="10575" tabRatio="864" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="7" r:id="rId1"/>
-    <sheet name="数据流转表结构设计" sheetId="1" r:id="rId2"/>
-    <sheet name="后台管理数据库表结构设计" sheetId="3" r:id="rId3"/>
-    <sheet name="场景设计数据库表结构设计" sheetId="8" r:id="rId4"/>
-    <sheet name="资源共享平台" sheetId="9" r:id="rId5"/>
-    <sheet name="任务管理" sheetId="10" r:id="rId6"/>
-    <sheet name="爬虫管理" sheetId="11" r:id="rId7"/>
-    <sheet name="代码" sheetId="5" r:id="rId8"/>
+    <sheet name="后台管理数据库表结构设计" sheetId="3" r:id="rId2"/>
+    <sheet name="爬虫管理" sheetId="11" r:id="rId3"/>
+    <sheet name="数据流转表结构设计" sheetId="1" r:id="rId4"/>
+    <sheet name="场景设计数据库表结构设计" sheetId="8" r:id="rId5"/>
+    <sheet name="资源共享平台" sheetId="9" r:id="rId6"/>
+    <sheet name="任务管理" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本记录!$A$1:$I$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">场景设计数据库表结构设计!$A$1:$T$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">后台管理数据库表结构设计!$A$1:$M$77</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">爬虫管理!$A$1:$T$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">任务管理!$A$1:$T$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">数据流转表结构设计!$A$1:$R$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">资源共享平台!$A$1:$T$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">场景设计数据库表结构设计!$A$1:$T$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理数据库表结构设计!$A$1:$M$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">爬虫管理!$A$1:$Q$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">任务管理!$A$1:$T$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$R$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">资源共享平台!$A$1:$T$67</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="452">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -936,77 +935,6 @@
     <t>联合建</t>
   </si>
   <si>
-    <t>png</t>
-  </si>
-  <si>
-    <t>htm</t>
-  </si>
-  <si>
-    <t>jpeg</t>
-  </si>
-  <si>
-    <t>bmp</t>
-  </si>
-  <si>
-    <t>jpg</t>
-  </si>
-  <si>
-    <t>lnk</t>
-  </si>
-  <si>
-    <t>sql</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>dbf</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>rar</t>
-  </si>
-  <si>
-    <t>mdb</t>
-  </si>
-  <si>
-    <t>csv</t>
-  </si>
-  <si>
-    <t>xls</t>
-  </si>
-  <si>
-    <t>xlsx</t>
-  </si>
-  <si>
-    <t>成功入库，或者处理后的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>txt</t>
-  </si>
-  <si>
-    <t>准备入库，或者准备处理的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>解释</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>excel_sheet_name</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1638,10 +1566,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sys_seed_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>seed_type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1734,19 +1658,211 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>操作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>application</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配对网址段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（10）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（50）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_uri</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（2000）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roler_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取内容规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>split 1字符串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>split 2整型脚标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apand 字符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apand 方式 字符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>array 取一个 整型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则列id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码文件管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_ZHCX_cols</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roler_colum_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tables_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>colums_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>colum_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则列名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roler_colum_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>colum_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roler</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spl1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spl2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>app1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>app2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（200）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（32）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（50）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（500）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_roler_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_url_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_result_roler_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_roler_colum_info</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2795,7 +2911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:H18"/>
     </sheetView>
   </sheetViews>
@@ -2843,7 +2959,7 @@
     <row r="4" spans="1:11">
       <c r="A4" s="33"/>
       <c r="B4" s="65" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -3297,10 +3413,2265 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M76"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1">
+      <c r="A4" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1">
+      <c r="A5"/>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1">
+      <c r="A6"/>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1">
+      <c r="A7"/>
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1">
+      <c r="A8"/>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1">
+      <c r="A9" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:13" s="63" customFormat="1">
+      <c r="A10" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="29" customFormat="1">
+      <c r="B11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="29" customFormat="1">
+      <c r="B12" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="29" customFormat="1">
+      <c r="B13" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="29" customFormat="1">
+      <c r="B14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="64" customFormat="1"/>
+    <row r="16" spans="1:13" s="2" customFormat="1">
+      <c r="A16" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="B19" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="3" customFormat="1"/>
+    <row r="22" spans="1:13" s="4" customFormat="1">
+      <c r="A22" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1"/>
+    <row r="28" spans="1:13" s="1" customFormat="1">
+      <c r="A28" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="5" customFormat="1">
+      <c r="A29" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1"/>
+    <row r="35" spans="1:10" s="5" customFormat="1">
+      <c r="A35" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="6" customFormat="1">
+      <c r="A41" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="6" customFormat="1">
+      <c r="A47" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J49" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="B50" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="6" customFormat="1">
+      <c r="A53" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="B54" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="G55" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="B56" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="6" customFormat="1">
+      <c r="A59" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="F61" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I61" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="76"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="2" customFormat="1">
+      <c r="A66" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="B67" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="B68" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I68" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="J68" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="M68" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="B69" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="B70" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="B73" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="B74" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E74" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="F74" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I74" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="B75" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="B76" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" s="78"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C76:D76"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="21.375" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" customWidth="1"/>
+    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1">
+      <c r="A4"/>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:15" s="58" customFormat="1">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+    </row>
+    <row r="6" spans="1:15" s="34" customFormat="1">
+      <c r="A6" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="D6" s="54"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>377</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>381</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>383</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1"/>
+    <row r="12" spans="1:15" s="49" customFormat="1">
+      <c r="A12" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>381</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="L14" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="6" customFormat="1">
+      <c r="A18" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="B19" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="B20" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="N20" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q20" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="B22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="1" customFormat="1"/>
+    <row r="24" spans="1:17" s="4" customFormat="1">
+      <c r="A24" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="D24" s="53"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="B25" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="B26" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="B27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="B28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="1" customFormat="1"/>
+    <row r="30" spans="1:17" s="1" customFormat="1"/>
+    <row r="31" spans="1:17" s="49" customFormat="1">
+      <c r="A31" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B31" s="16"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="B34" s="11"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+    </row>
+    <row r="36" spans="1:16" s="58" customFormat="1">
+      <c r="A36" s="57"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3352,10 +5723,10 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="29" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
@@ -3434,7 +5805,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -3588,7 +5959,7 @@
         <v>52</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>53</v>
@@ -3874,7 +6245,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3927,7 +6298,7 @@
         <v>117</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3977,10 +6348,10 @@
         <v>129</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4033,7 +6404,7 @@
         <v>134</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4068,7 +6439,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4191,7 +6562,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4281,1456 +6652,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M77"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="G4" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:M26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1">
-      <c r="A5"/>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1">
-      <c r="A6"/>
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1">
-      <c r="A7"/>
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1">
-      <c r="A8"/>
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1">
-      <c r="A9" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="B9"/>
-    </row>
-    <row r="10" spans="1:13" s="63" customFormat="1">
-      <c r="A10" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>269</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="29" customFormat="1">
-      <c r="B11" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="29" customFormat="1">
-      <c r="B12" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="29" customFormat="1">
-      <c r="B13" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="29" customFormat="1">
-      <c r="B14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="64" customFormat="1"/>
-    <row r="16" spans="1:13" s="2" customFormat="1">
-      <c r="A16" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>361</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="B17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="B18" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="B19" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="B20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="3" customFormat="1"/>
-    <row r="22" spans="1:13" s="4" customFormat="1">
-      <c r="A22" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="B22" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="B23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="B24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I24" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="B26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1"/>
-    <row r="28" spans="1:13" s="1" customFormat="1">
-      <c r="A28" s="29" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="5" customFormat="1">
-      <c r="A29" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="B30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="B32" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="B33" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="1" customFormat="1"/>
-    <row r="35" spans="1:9" s="1" customFormat="1"/>
-    <row r="36" spans="1:9" s="5" customFormat="1">
-      <c r="A36" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="F38" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="B40" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="6" customFormat="1">
-      <c r="A42" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="B44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="F44" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="I44" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="29" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="6" customFormat="1">
-      <c r="A48" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="B49" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="B50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F50" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="G50" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="J50" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="B51" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="B52" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="29" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="6" customFormat="1">
-      <c r="A54" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="B55" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="B56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="G56" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="J56" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="B57" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="B58" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="6" customFormat="1">
-      <c r="A60" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="B61" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="B62" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E62" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="F62" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="I62" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="B63" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="B64" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" s="75" t="s">
-        <v>215</v>
-      </c>
-      <c r="D64" s="76"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="29" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="2" customFormat="1">
-      <c r="A67" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="B68" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="K68" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="L68" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="M68" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="B69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="I69" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="J69" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="L69" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="M69" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="B70" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L70" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="B71" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="29" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="55" t="s">
-        <v>368</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C73" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="B74" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="B75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E75" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="F75" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="I75" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="B76" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="B77" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" s="77" t="s">
-        <v>237</v>
-      </c>
-      <c r="D77" s="78"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C77:D77"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B16"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5762,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1">
@@ -5770,7 +6697,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>155</v>
@@ -5784,7 +6711,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1">
@@ -5793,22 +6720,22 @@
     </row>
     <row r="5" spans="1:16" s="58" customFormat="1">
       <c r="A5" s="59" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B5" s="59"/>
     </row>
     <row r="6" spans="1:16" s="34" customFormat="1">
       <c r="A6" s="12" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5816,22 +6743,22 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>162</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>163</v>
@@ -5842,31 +6769,31 @@
     </row>
     <row r="8" spans="1:16">
       <c r="B8" s="50" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -5874,13 +6801,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>43</v>
@@ -5918,63 +6845,63 @@
     <row r="11" spans="1:16" s="4" customFormat="1"/>
     <row r="12" spans="1:16" s="4" customFormat="1">
       <c r="A12" s="18" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="B13" s="50" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="J13" s="50" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="L13" s="50" t="s">
         <v>163</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="O13" s="50" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="P13" s="50" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -5982,46 +6909,46 @@
         <v>13</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="I14" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="L14" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="M14" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="N14" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="O14" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="K14" s="50" t="s">
+      <c r="P14" s="50" t="s">
         <v>298</v>
-      </c>
-      <c r="L14" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="M14" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="N14" s="50" t="s">
-        <v>318</v>
-      </c>
-      <c r="O14" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="P14" s="50" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6086,75 +7013,75 @@
     <row r="18" spans="1:20" s="1" customFormat="1"/>
     <row r="19" spans="1:20" s="49" customFormat="1">
       <c r="A19" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>186</v>
+        <v>267</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>428</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="B20" s="50" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="J20" s="50" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="K20" s="50" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="L20" s="50" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="M20" s="50" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="N20" s="50" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="O20" s="50" t="s">
         <v>163</v>
       </c>
       <c r="P20" s="50" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="50" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="R20" s="50" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="S20" s="50" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="T20" s="50" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -6162,58 +7089,58 @@
         <v>13</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="I21" s="50" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="J21" s="50" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="K21" s="50" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="L21" s="50" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="M21" s="50" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="N21" s="50" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="O21" s="50" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="P21" s="50" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="50" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="R21" s="50" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="S21" s="50" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="T21" s="50" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -6277,7 +7204,7 @@
     <row r="24" spans="1:20" s="1" customFormat="1"/>
     <row r="25" spans="1:20" s="58" customFormat="1">
       <c r="A25" s="57" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="49" customFormat="1">
@@ -6567,7 +7494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
@@ -6604,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1">
@@ -6612,7 +7539,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>155</v>
@@ -6626,7 +7553,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1">
@@ -7141,12 +8068,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7178,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1">
@@ -7186,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>155</v>
@@ -7200,7 +8127,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1">
@@ -7713,917 +8640,4 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T67"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="21.375" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" customWidth="1"/>
-    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1">
-      <c r="A4"/>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:15" s="58" customFormat="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-    </row>
-    <row r="6" spans="1:15" s="34" customFormat="1">
-      <c r="A6" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>399</v>
-      </c>
-      <c r="D6" s="54"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="B7" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>401</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>402</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>403</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="L8" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="B9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>415</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1"/>
-    <row r="12" spans="1:15" s="49" customFormat="1">
-      <c r="A12" s="56" t="s">
-        <v>396</v>
-      </c>
-      <c r="B12" s="56"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="B13" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="B14" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="B15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1">
-      <c r="A18" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="B19" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="B20" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="B21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="B22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:20" s="1" customFormat="1"/>
-    <row r="24" spans="1:20" s="4" customFormat="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="55"/>
-      <c r="D24" s="53"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-    </row>
-    <row r="29" spans="1:20" s="1" customFormat="1"/>
-    <row r="30" spans="1:20" s="1" customFormat="1"/>
-    <row r="31" spans="1:20" s="49" customFormat="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="B34" s="11"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-    </row>
-    <row r="36" spans="1:20" s="58" customFormat="1">
-      <c r="A36" s="57"/>
-    </row>
-    <row r="38" spans="1:20" s="6" customFormat="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="B39" s="11"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="B40" s="11"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="44" spans="1:20" s="6" customFormat="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="B45" s="11"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="50" spans="1:11" s="6" customFormat="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="B51" s="11"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="B54" s="10"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="57" spans="1:11" s="34" customFormat="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="B58" s="11"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="B60" s="11"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="11"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="B64" s="11"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="10"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C67:D67"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="27.25" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="451">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -1654,10 +1654,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>规则信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1698,15 +1694,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>content_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>request_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（2000）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1863,6 +1851,14 @@
   </si>
   <si>
     <t>sys_seed_roler_colum_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_uri</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配对网址段</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4859,7 +4855,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4891,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
@@ -4929,7 +4925,7 @@
         <v>373</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D6" s="54"/>
     </row>
@@ -5091,7 +5087,7 @@
         <v>374</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5105,16 +5101,16 @@
         <v>398</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>404</v>
-      </c>
       <c r="G13" s="10" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>387</v>
@@ -5146,19 +5142,19 @@
         <v>397</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>409</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>411</v>
       </c>
       <c r="I14" s="50" t="s">
         <v>381</v>
@@ -5190,16 +5186,16 @@
         <v>16</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>408</v>
-      </c>
       <c r="F15" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>384</v>
@@ -5232,7 +5228,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -5250,10 +5246,10 @@
     </row>
     <row r="18" spans="1:17" s="6" customFormat="1">
       <c r="A18" s="16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -5261,31 +5257,31 @@
         <v>299</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="I19" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>420</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>423</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>4</v>
@@ -5311,31 +5307,31 @@
         <v>13</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="I20" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="J20" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>439</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>442</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>168</v>
@@ -5367,25 +5363,25 @@
         <v>16</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>447</v>
-      </c>
       <c r="K21" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>170</v>
@@ -5434,7 +5430,7 @@
         <v>375</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D24" s="53"/>
     </row>
@@ -5443,22 +5439,22 @@
         <v>299</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>4</v>
@@ -5484,22 +5480,22 @@
         <v>13</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>429</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>432</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>168</v>
@@ -5584,7 +5580,7 @@
     <row r="30" spans="1:17" s="1" customFormat="1"/>
     <row r="31" spans="1:17" s="49" customFormat="1">
       <c r="A31" s="16" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B31" s="16"/>
     </row>
@@ -7016,7 +7012,7 @@
         <v>267</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>249</v>

--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="14535" windowHeight="10575" tabRatio="864" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="14535" windowHeight="10575" tabRatio="864" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="7" r:id="rId1"/>
@@ -17,19 +17,19 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本记录!$A$1:$I$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">场景设计数据库表结构设计!$A$1:$T$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">场景设计数据库表结构设计!$A$1:$K$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理数据库表结构设计!$A$1:$M$76</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">爬虫管理!$A$1:$Q$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">爬虫管理!$A$1:$Q$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">任务管理!$A$1:$T$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$R$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$U$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">资源共享平台!$A$1:$T$67</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="449">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -181,40 +181,1438 @@
     <t>表信息</t>
   </si>
   <si>
+    <t>表的注释说明</t>
+  </si>
+  <si>
+    <t>数据库名称id</t>
+  </si>
+  <si>
+    <t>表描述</t>
+  </si>
+  <si>
+    <t>修改状态</t>
+  </si>
+  <si>
+    <t>是否可删除源表数据</t>
+  </si>
+  <si>
+    <t>不删除的同步筛选条件</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>create_flag</t>
+  </si>
+  <si>
+    <t>varchar（200）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>varchar（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>外键</t>
+  </si>
+  <si>
+    <t>列信息</t>
+  </si>
+  <si>
+    <t>sys_column_info</t>
+  </si>
+  <si>
+    <t>程序时时运行 通过配置表使得程序读取表中信息去自动进行数据的抽取入到oracle中 执行过程每千条数据进行一次抽取提交，并删除mysql库中的数据</t>
+  </si>
+  <si>
+    <t>表名称id</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段说明</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>字段长度</t>
+  </si>
+  <si>
+    <t>字段排序列</t>
+  </si>
+  <si>
+    <t>逻辑增加列</t>
+  </si>
+  <si>
+    <t>导入表名称</t>
+  </si>
+  <si>
+    <t>导入表字段</t>
+  </si>
+  <si>
+    <t>导入表的列长度</t>
+  </si>
+  <si>
+    <t>导入表的列类型</t>
+  </si>
+  <si>
+    <t>创建修改状态</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>column_names</t>
+  </si>
+  <si>
+    <t>column_ instruction</t>
+  </si>
+  <si>
+    <t>column_type</t>
+  </si>
+  <si>
+    <t>column_length</t>
+  </si>
+  <si>
+    <t>primary_id</t>
+  </si>
+  <si>
+    <t>column_sort</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>logical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">column </t>
+    </r>
+  </si>
+  <si>
+    <t>to_table</t>
+  </si>
+  <si>
+    <t>to_column</t>
+  </si>
+  <si>
+    <t>to_col_length</t>
+  </si>
+  <si>
+    <t>to_col_type</t>
+  </si>
+  <si>
+    <t>varchar（20）</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>varchar（2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0）</t>
+    </r>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>文本数据导入结构化数据</t>
+  </si>
+  <si>
+    <t>文件信息</t>
+  </si>
+  <si>
+    <t>sys_files_info</t>
+  </si>
+  <si>
+    <t>文件名</t>
+  </si>
+  <si>
+    <t>文件类型</t>
+  </si>
+  <si>
+    <t>文件大小</t>
+  </si>
+  <si>
+    <t>文件绝对路径</t>
+  </si>
+  <si>
+    <t>定界符</t>
+  </si>
+  <si>
+    <t>替换符号</t>
+  </si>
+  <si>
+    <t>插入开始时间</t>
+  </si>
+  <si>
+    <t>插入状态</t>
+  </si>
+  <si>
+    <t>插入记录数</t>
+  </si>
+  <si>
+    <t>插入结束时间</t>
+  </si>
+  <si>
+    <t>插入数据库</t>
+  </si>
+  <si>
+    <t>插入数据库的表名称</t>
+  </si>
+  <si>
+    <t>插入数据库的数据量</t>
+  </si>
+  <si>
+    <t>执行的错误信息</t>
+  </si>
+  <si>
+    <t>sheet名称</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>byttery</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>separator</t>
+  </si>
+  <si>
+    <t>optionally</t>
+  </si>
+  <si>
+    <t>start_timestimp</t>
+  </si>
+  <si>
+    <t>inser_num</t>
+  </si>
+  <si>
+    <t>end_eimestimp</t>
+  </si>
+  <si>
+    <t>database_id</t>
+  </si>
+  <si>
+    <t>to_database_table_name</t>
+  </si>
+  <si>
+    <t>row_count</t>
+  </si>
+  <si>
+    <t>error_message</t>
+  </si>
+  <si>
+    <t>varchar（100）</t>
+  </si>
+  <si>
+    <t>varchar（2047）</t>
+  </si>
+  <si>
+    <t>varchar（10）</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>varchar2(4000)</t>
+  </si>
+  <si>
+    <t>sys_files_title</t>
+  </si>
+  <si>
+    <t>文件id</t>
+  </si>
+  <si>
+    <t>文件标题列</t>
+  </si>
+  <si>
+    <t>是否是第一行</t>
+  </si>
+  <si>
+    <t>file_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>irst_row</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>varchar（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>信息统计</t>
+  </si>
+  <si>
+    <t>sys_transform_info</t>
+  </si>
+  <si>
+    <t>表名(注释)或文件名</t>
+  </si>
+  <si>
+    <t>插入库中数据量</t>
+  </si>
+  <si>
+    <t>错误的数据量</t>
+  </si>
+  <si>
+    <t>录入数据库采集的日期</t>
+  </si>
+  <si>
+    <t>任务执行的时间</t>
+  </si>
+  <si>
+    <t>succeed_num</t>
+  </si>
+  <si>
+    <t>error_num</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>insert_timestimp</t>
+  </si>
+  <si>
+    <t>userConfig</t>
+  </si>
+  <si>
+    <t>date&gt;&gt;timestimp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>用户权限管理平台数据结构</t>
+  </si>
+  <si>
+    <t>项目信息</t>
+  </si>
+  <si>
+    <t>项目表</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>开发人</t>
+  </si>
+  <si>
+    <t>插入时间</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>标记</t>
+  </si>
+  <si>
+    <t>后台程序</t>
+  </si>
+  <si>
+    <t>99c74ada3a1411e6bdcb10bf48e1d36a</t>
+  </si>
+  <si>
+    <t>system_name</t>
+  </si>
+  <si>
+    <t>discription</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>varchar（140）</t>
+  </si>
+  <si>
+    <t>删除标志</t>
+  </si>
+  <si>
+    <t>菜单信息</t>
+  </si>
+  <si>
+    <t>sys_menu_info</t>
+  </si>
+  <si>
+    <t>网页动态加载模块的辅助表，配置系统请求地址</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上一级i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>uri地址</t>
+  </si>
+  <si>
+    <t>类样式</t>
+  </si>
+  <si>
+    <t>parents_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar（1020）</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>外链接系统</t>
+  </si>
+  <si>
+    <t>自连接外键</t>
+  </si>
+  <si>
+    <t>机构信息</t>
+  </si>
+  <si>
+    <t>sys_organization_info</t>
+  </si>
+  <si>
+    <t>机构描述</t>
+  </si>
+  <si>
+    <t>机构名称</t>
+  </si>
+  <si>
+    <t>organization_name</t>
+  </si>
+  <si>
+    <t>organization_discription</t>
+  </si>
+  <si>
+    <t>部门信息</t>
+  </si>
+  <si>
+    <t>sys_department_info</t>
+  </si>
+  <si>
+    <t>部门描述</t>
+  </si>
+  <si>
+    <t>机构id</t>
+  </si>
+  <si>
+    <t>部门名称</t>
+  </si>
+  <si>
+    <t>organization_id</t>
+  </si>
+  <si>
+    <t>department_name</t>
+  </si>
+  <si>
+    <t>department_discription</t>
+  </si>
+  <si>
+    <t>外键机构id</t>
+  </si>
+  <si>
+    <t>角色信息</t>
+  </si>
+  <si>
+    <t>sys_roles_info</t>
+  </si>
+  <si>
+    <t>角色描述</t>
+  </si>
+  <si>
+    <t>部门id</t>
+  </si>
+  <si>
+    <t>角色名称</t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>role_name</t>
+  </si>
+  <si>
+    <t>role_discription</t>
+  </si>
+  <si>
+    <t>外键部门id</t>
+  </si>
+  <si>
+    <t>sys_roles_jurisdiction_info</t>
+  </si>
+  <si>
+    <t>角色权限表</t>
+  </si>
+  <si>
+    <t>角色id</t>
+  </si>
+  <si>
+    <t>菜单id</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>menu_id</t>
+  </si>
+  <si>
+    <t>合并键</t>
+  </si>
+  <si>
+    <t>用户信息</t>
+  </si>
+  <si>
+    <t>sys_user_base_info</t>
+  </si>
+  <si>
+    <t>登录名</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>persion_name</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>namber</t>
+  </si>
+  <si>
+    <t>唯一</t>
+  </si>
+  <si>
+    <t>sys_user_roles_info</t>
+  </si>
+  <si>
+    <t>用户角色</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>roles_id</t>
+  </si>
+  <si>
+    <t>联合建</t>
+  </si>
+  <si>
+    <t>excel_sheet_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否文件夹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_DIR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色菜单信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构项目信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_system_info</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构项目关系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构部门信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构部门关系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动入库用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表的注释说明 做表关系映射用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库数据统计用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元项目开发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>application</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>application</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景设计数据库表结构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+  </si>
+  <si>
+    <t>TABLE_DESC</t>
+  </si>
+  <si>
+    <t>唯一id</t>
+  </si>
+  <si>
+    <t>表类型ID</t>
+  </si>
+  <si>
+    <t>表的翻译</t>
+  </si>
+  <si>
+    <t>表数据量</t>
+  </si>
+  <si>
+    <t>空间大小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLD_TYPE</t>
+  </si>
+  <si>
+    <t>列类型</t>
+  </si>
+  <si>
+    <t>sys_database_info</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys_system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_info</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目版本更新信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>system_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar（1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（200）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目系统更新表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色权限信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统版本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本修改描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>system_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>discription</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>con</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源共享数据库表结构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统主要目的进行多个结构化数据库之间/文件数据库之间的数据整理，统计，合并</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要目的是进行后台系统管理，企业信息管理，用户管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uri</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>updata_user</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（36）</t>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>updata_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子网站管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络爬虫表结构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed_Icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed_url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>charset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符集</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站商标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(36)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则类别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>application</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配对网址段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（10）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（50）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_uri</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roler_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取内容规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>split 1字符串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>split 2整型脚标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apand 字符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apand 方式 字符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>array 取一个 整型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则列id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roler_colum_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tables_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>colums_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>colum_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则列名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roler_colum_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>colum_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roler</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spl1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spl2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>app1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>app2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（200）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（32）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（50）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（500）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_roler_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_url_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_result_roler_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_roler_colum_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_uri</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配对网址段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>discription</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>updata_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>updata_user</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否约束主键</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>sys_table_info</t>
-  </si>
-  <si>
-    <t>表的注释说明</t>
-  </si>
-  <si>
-    <t>数据库名称id</t>
-  </si>
-  <si>
-    <t>表描述</t>
-  </si>
-  <si>
-    <t>修改状态</t>
-  </si>
-  <si>
-    <t>是否可删除源表数据</t>
-  </si>
-  <si>
-    <t>不删除的同步筛选条件</t>
-  </si>
-  <si>
-    <t>分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>database_uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>table_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>table_disc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>create_flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>transform_control</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -244,6 +1642,11 @@
       </rPr>
       <t>_control</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2·</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -273,22 +1676,129 @@
       </rPr>
       <t>conditions</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>classify</t>
-  </si>
-  <si>
-    <t>varchar（200）</t>
-  </si>
-  <si>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>varchar（</t>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>discription</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table_type_info</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ead_pic</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面分类规则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据提取详细规则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库连接</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>列信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
     </r>
     <r>
       <rPr>
@@ -296,104 +1806,7 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>外键</t>
-  </si>
-  <si>
-    <t>列信息</t>
-  </si>
-  <si>
-    <t>sys_column_info</t>
-  </si>
-  <si>
-    <t>程序时时运行 通过配置表使得程序读取表中信息去自动进行数据的抽取入到oracle中 执行过程每千条数据进行一次抽取提交，并删除mysql库中的数据</t>
-  </si>
-  <si>
-    <t>表名称id</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段说明</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>字段长度</t>
-  </si>
-  <si>
-    <t>字段排序列</t>
-  </si>
-  <si>
-    <t>逻辑增加列</t>
-  </si>
-  <si>
-    <t>导入表名称</t>
-  </si>
-  <si>
-    <t>导入表字段</t>
-  </si>
-  <si>
-    <t>导入表的列长度</t>
-  </si>
-  <si>
-    <t>导入表的列类型</t>
-  </si>
-  <si>
-    <t>创建修改状态</t>
-  </si>
-  <si>
-    <t>table_id</t>
-  </si>
-  <si>
-    <t>column_names</t>
-  </si>
-  <si>
-    <t>column_ instruction</t>
-  </si>
-  <si>
-    <t>column_type</t>
-  </si>
-  <si>
-    <t>column_length</t>
-  </si>
-  <si>
-    <t>primary_id</t>
-  </si>
-  <si>
-    <t>column_sort</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>logical</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>_</t>
     </r>
@@ -402,41 +1815,11 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">column </t>
-    </r>
-  </si>
-  <si>
-    <t>to_table</t>
-  </si>
-  <si>
-    <t>to_column</t>
-  </si>
-  <si>
-    <t>to_col_length</t>
-  </si>
-  <si>
-    <t>to_col_type</t>
-  </si>
-  <si>
-    <t>varchar（20）</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>varchar(2)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>varchar（2</t>
+      <t>anay_</t>
     </r>
     <r>
       <rPr>
@@ -444,8 +1827,186 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>0</t>
+      <t>info</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据统计表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天每个表的增量信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>able_name</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ll_count</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nc_number</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ate</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段展示时排序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段的长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段的翻译</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_CLASS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_ORDER</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>discription</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_UUID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_ROWS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_SPACE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_ORDER</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_column_info</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ls</t>
     </r>
     <r>
       <rPr>
@@ -453,672 +2014,19 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>0）</t>
+      <t>_name</t>
     </r>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>文本数据导入结构化数据</t>
-  </si>
-  <si>
-    <t>文件信息</t>
-  </si>
-  <si>
-    <t>sys_files_info</t>
-  </si>
-  <si>
-    <t>文件名</t>
-  </si>
-  <si>
-    <t>文件类型</t>
-  </si>
-  <si>
-    <t>文件大小</t>
-  </si>
-  <si>
-    <t>文件绝对路径</t>
-  </si>
-  <si>
-    <t>定界符</t>
-  </si>
-  <si>
-    <t>替换符号</t>
-  </si>
-  <si>
-    <t>插入开始时间</t>
-  </si>
-  <si>
-    <t>插入状态</t>
-  </si>
-  <si>
-    <t>插入记录数</t>
-  </si>
-  <si>
-    <t>插入结束时间</t>
-  </si>
-  <si>
-    <t>插入数据库</t>
-  </si>
-  <si>
-    <t>插入数据库的表名称</t>
-  </si>
-  <si>
-    <t>插入数据库的数据量</t>
-  </si>
-  <si>
-    <t>执行的错误信息</t>
-  </si>
-  <si>
-    <t>sheet名称</t>
-  </si>
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>byttery</t>
-  </si>
-  <si>
-    <t>file_path</t>
-  </si>
-  <si>
-    <t>separator</t>
-  </si>
-  <si>
-    <t>optionally</t>
-  </si>
-  <si>
-    <t>start_timestimp</t>
-  </si>
-  <si>
-    <t>inser_num</t>
-  </si>
-  <si>
-    <t>end_eimestimp</t>
-  </si>
-  <si>
-    <t>database_id</t>
-  </si>
-  <si>
-    <t>to_database_table_name</t>
-  </si>
-  <si>
-    <t>row_count</t>
-  </si>
-  <si>
-    <t>error_message</t>
-  </si>
-  <si>
-    <t>varchar（100）</t>
-  </si>
-  <si>
-    <t>varchar（2047）</t>
-  </si>
-  <si>
-    <t>varchar（10）</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>varchar2(4000)</t>
-  </si>
-  <si>
-    <t>sys_files_title</t>
-  </si>
-  <si>
-    <t>文件id</t>
-  </si>
-  <si>
-    <t>文件标题列</t>
-  </si>
-  <si>
-    <t>是否是第一行</t>
-  </si>
-  <si>
-    <t>file_id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>irst_row</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>varchar（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>信息统计</t>
-  </si>
-  <si>
-    <t>sys_transform_info</t>
-  </si>
-  <si>
-    <t>表名(注释)或文件名</t>
-  </si>
-  <si>
-    <t>插入库中数据量</t>
-  </si>
-  <si>
-    <t>错误的数据量</t>
-  </si>
-  <si>
-    <t>录入数据库采集的日期</t>
-  </si>
-  <si>
-    <t>任务执行的时间</t>
-  </si>
-  <si>
-    <t>succeed_num</t>
-  </si>
-  <si>
-    <t>error_num</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>insert_timestimp</t>
-  </si>
-  <si>
-    <t>userConfig</t>
-  </si>
-  <si>
-    <t>date&gt;&gt;timestimp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>用户权限管理平台数据结构</t>
-  </si>
-  <si>
-    <t>项目信息</t>
-  </si>
-  <si>
-    <t>项目表</t>
-  </si>
-  <si>
-    <t>系统</t>
-  </si>
-  <si>
-    <t>开发人</t>
-  </si>
-  <si>
-    <t>插入时间</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>标记</t>
-  </si>
-  <si>
-    <t>后台程序</t>
-  </si>
-  <si>
-    <t>99c74ada3a1411e6bdcb10bf48e1d36a</t>
-  </si>
-  <si>
-    <t>system_name</t>
-  </si>
-  <si>
-    <t>discription</t>
-  </si>
-  <si>
-    <t>developer</t>
-  </si>
-  <si>
-    <t>varchar（140）</t>
-  </si>
-  <si>
-    <t>删除标志</t>
-  </si>
-  <si>
-    <t>菜单信息</t>
-  </si>
-  <si>
-    <t>sys_menu_info</t>
-  </si>
-  <si>
-    <t>网页动态加载模块的辅助表，配置系统请求地址</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上一级i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>uri地址</t>
-  </si>
-  <si>
-    <t>类样式</t>
-  </si>
-  <si>
-    <t>parents_id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>varchar（1020）</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>外链接系统</t>
-  </si>
-  <si>
-    <t>自连接外键</t>
-  </si>
-  <si>
-    <t>机构信息</t>
-  </si>
-  <si>
-    <t>sys_organization_info</t>
-  </si>
-  <si>
-    <t>机构描述</t>
-  </si>
-  <si>
-    <t>机构名称</t>
-  </si>
-  <si>
-    <t>organization_name</t>
-  </si>
-  <si>
-    <t>organization_discription</t>
-  </si>
-  <si>
-    <t>部门信息</t>
-  </si>
-  <si>
-    <t>sys_department_info</t>
-  </si>
-  <si>
-    <t>部门描述</t>
-  </si>
-  <si>
-    <t>机构id</t>
-  </si>
-  <si>
-    <t>部门名称</t>
-  </si>
-  <si>
-    <t>organization_id</t>
-  </si>
-  <si>
-    <t>department_name</t>
-  </si>
-  <si>
-    <t>department_discription</t>
-  </si>
-  <si>
-    <t>外键机构id</t>
-  </si>
-  <si>
-    <t>角色信息</t>
-  </si>
-  <si>
-    <t>sys_roles_info</t>
-  </si>
-  <si>
-    <t>角色描述</t>
-  </si>
-  <si>
-    <t>部门id</t>
-  </si>
-  <si>
-    <t>角色名称</t>
-  </si>
-  <si>
-    <t>department_id</t>
-  </si>
-  <si>
-    <t>role_name</t>
-  </si>
-  <si>
-    <t>role_discription</t>
-  </si>
-  <si>
-    <t>外键部门id</t>
-  </si>
-  <si>
-    <t>sys_roles_jurisdiction_info</t>
-  </si>
-  <si>
-    <t>角色权限表</t>
-  </si>
-  <si>
-    <t>角色id</t>
-  </si>
-  <si>
-    <t>菜单id</t>
-  </si>
-  <si>
-    <t>role_id</t>
-  </si>
-  <si>
-    <t>menu_id</t>
-  </si>
-  <si>
-    <t>合并键</t>
-  </si>
-  <si>
-    <t>用户信息</t>
-  </si>
-  <si>
-    <t>sys_user_base_info</t>
-  </si>
-  <si>
-    <t>登录名</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>工龄</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>persion_name</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>seniority</t>
-  </si>
-  <si>
-    <t>namber</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>唯一</t>
-  </si>
-  <si>
-    <t>sys_user_roles_info</t>
-  </si>
-  <si>
-    <t>用户角色</t>
-  </si>
-  <si>
-    <t>用户id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>roles_id</t>
-  </si>
-  <si>
-    <t>联合建</t>
-  </si>
-  <si>
-    <t>excel_sheet_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否文件夹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_DIR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库表名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色菜单信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构项目信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_system_info</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构项目关系</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构部门信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构部门关系</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动入库用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>表的注释说明 做表关系映射用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库数据统计用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元项目开发</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>application</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>application</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景设计数据库表结构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>表配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>列配置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS_ZHCX_TYPE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合查询表类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE_NAME</t>
-  </si>
-  <si>
-    <t>TYPE_CLASS</t>
-  </si>
-  <si>
-    <t>TYPE_ORDER</t>
-  </si>
-  <si>
-    <t>CREATE_USER</t>
-  </si>
-  <si>
-    <t>CREATE_TIME</t>
-  </si>
-  <si>
-    <t>UPDATE_USER</t>
-  </si>
-  <si>
-    <t>UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>DELETE_FLAG</t>
-  </si>
-  <si>
-    <t>插入人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLS_DESC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1133,7 +2041,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>30</t>
+      <t>100</t>
     </r>
     <r>
       <rPr>
@@ -1145,11 +2053,19 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLD_LENGTH</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLS_ORDER</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>varchar（</t>
+      <t>col</t>
     </r>
     <r>
       <rPr>
@@ -1160,7 +2076,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>30</t>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -1170,168 +2086,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS_ZHCX_TABS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合查询表批量配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE_UUID</t>
-  </si>
-  <si>
-    <t>TABLE_NAME</t>
-  </si>
-  <si>
-    <t>TABLE_DESC</t>
-  </si>
-  <si>
-    <t>TABLE_ROWS</t>
-  </si>
-  <si>
-    <t>TABLE_ORDER</t>
-  </si>
-  <si>
-    <t>ES_NAME</t>
-  </si>
-  <si>
-    <t>DB_TYPE</t>
-  </si>
-  <si>
-    <t>COLS_TIME</t>
-  </si>
-  <si>
-    <t>唯一id</t>
-  </si>
-  <si>
-    <t>表类型ID</t>
-  </si>
-  <si>
-    <t>表名称</t>
-  </si>
-  <si>
-    <t>表的翻译</t>
-  </si>
-  <si>
-    <t>表数据量</t>
-  </si>
-  <si>
-    <t>创建人</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>隐藏标记</t>
-  </si>
-  <si>
-    <t>ES 的索引名称</t>
-  </si>
-  <si>
-    <t>数据库的类型</t>
-  </si>
-  <si>
-    <t>时间类型的列名</t>
-  </si>
-  <si>
-    <t>TABLE_SPACE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>空间大小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_UUID</t>
-  </si>
-  <si>
-    <t>COLS_NAME</t>
-  </si>
-  <si>
-    <t>COLS_DESC</t>
-  </si>
-  <si>
-    <t>COLD_TYPE</t>
-  </si>
-  <si>
-    <t>COLD_LENGTH</t>
-  </si>
-  <si>
-    <t>COLS_ORDER</t>
-  </si>
-  <si>
-    <t>PAGE_LIST</t>
-  </si>
-  <si>
-    <t>PAGE_VIEW</t>
-  </si>
-  <si>
-    <t>USER_INDEX</t>
-  </si>
-  <si>
-    <t>MD5_FLAG</t>
-  </si>
-  <si>
-    <t>ES_INDEX</t>
-  </si>
-  <si>
-    <t>ROW_NUM_PERCENT</t>
-  </si>
-  <si>
-    <t>MAX_LENGTH</t>
-  </si>
-  <si>
-    <t>表ID</t>
-  </si>
-  <si>
-    <t>列名称</t>
-  </si>
-  <si>
-    <t>列的翻译</t>
-  </si>
-  <si>
-    <t>列类型</t>
-  </si>
-  <si>
-    <t>列的长度</t>
-  </si>
-  <si>
-    <t>列展示时排序</t>
-  </si>
-  <si>
-    <t>列表展示时用到的列表展示列</t>
-  </si>
-  <si>
-    <t>单页面显示隐藏用到的配置列</t>
-  </si>
-  <si>
-    <t>平台检索时的类型配置</t>
-  </si>
-  <si>
-    <t>批量对身份证号加密MD5用到的配置列</t>
-  </si>
-  <si>
-    <t>ES检索时的字段名称</t>
-  </si>
-  <si>
-    <t>不为空的百分比</t>
-  </si>
-  <si>
-    <t>最大长度</t>
-  </si>
-  <si>
-    <t>sys_database_info</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>sys_system</t>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -1342,524 +2097,9 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_up</t>
+      <t>type</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_info</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目版本更新信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>system_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>varchar（1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（200）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目系统更新表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色权限信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目管理：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构管理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门管理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色管理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统版本</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本修改描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>system_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>num</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>discription</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>con</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete_flag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源共享数据库表结构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统主要目的进行多个结构化数据库之间/文件数据库之间的数据整理，统计，合并</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要目的是进行后台系统管理，企业信息管理，用户管理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>uri</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>updata_user</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（36）</t>
-  </si>
-  <si>
-    <t>create_user</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>updata_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>种子网站管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络爬虫表结构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seed_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seed_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seed_Icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seed_url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>charset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>request_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>request_date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符集</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(2000)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站商标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1000)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1000)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(36)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>种子id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seed_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则类别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>application</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求操作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配对网址段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（10）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（50）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_uri</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>request_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>roler_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>列名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>取内容规则</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>split 1字符串</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>split 2整型脚标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>apand 字符</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>apand 方式 字符</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>array 取一个 整型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则列id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>表id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>列id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码文件管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS_ZHCX_cols</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>roler_colum_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tables_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>colums_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>colum_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则列名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>roler_colum_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>colum_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>roler</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>spl1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>spl2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>app1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>app2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>arr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（200）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（32）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（50）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（500）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_seed_roler_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_seed_url_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_seed_result_roler_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_seed_roler_colum_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_uri</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配对网址段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1963,7 +2203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -2356,6 +2596,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2365,7 +2629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2602,6 +2866,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2955,7 +3240,7 @@
     <row r="4" spans="1:11">
       <c r="A4" s="33"/>
       <c r="B4" s="65" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -3411,14 +3696,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
@@ -3437,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
@@ -3445,13 +3730,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
@@ -3459,15 +3744,15 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
       <c r="A4" s="29" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1">
@@ -3488,22 +3773,22 @@
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1">
       <c r="A9" s="29" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="B9"/>
     </row>
     <row r="10" spans="1:13" s="63" customFormat="1">
       <c r="A10" s="61" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C10" s="63" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="29" customFormat="1">
@@ -3511,89 +3796,89 @@
         <v>22</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="29" customFormat="1">
       <c r="B12" s="30" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="29" customFormat="1">
       <c r="B13" s="30" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>44</v>
@@ -3611,22 +3896,22 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="64" customFormat="1"/>
     <row r="16" spans="1:13" s="2" customFormat="1">
       <c r="A16" s="61" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -3634,92 +3919,92 @@
         <v>22</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>354</v>
+        <v>284</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="B18" s="11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>356</v>
+        <v>286</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="B19" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>44</v>
@@ -3738,22 +4023,22 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1"/>
     <row r="22" spans="1:13" s="4" customFormat="1">
       <c r="A22" s="60" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3761,37 +4046,37 @@
         <v>22</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -3799,72 +4084,72 @@
         <v>13</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="B25" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>44</v>
@@ -3875,10 +4160,10 @@
         <v>48</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="10"/>
@@ -3889,27 +4174,27 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1"/>
     <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="29" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1">
       <c r="A29" s="14" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -3917,25 +4202,25 @@
         <v>22</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -3943,48 +4228,48 @@
         <v>13</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="F31" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="B32" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>44</v>
@@ -4001,22 +4286,22 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1"/>
     <row r="35" spans="1:10" s="5" customFormat="1">
       <c r="A35" s="14" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4024,25 +4309,25 @@
         <v>22</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4050,48 +4335,48 @@
         <v>13</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>44</v>
@@ -4108,21 +4393,21 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1">
       <c r="A41" s="16" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4130,25 +4415,25 @@
         <v>22</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -4156,48 +4441,48 @@
         <v>13</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>44</v>
@@ -4208,7 +4493,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
@@ -4216,26 +4501,26 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="29" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="6" customFormat="1">
       <c r="A47" s="16" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4243,28 +4528,28 @@
         <v>22</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -4272,54 +4557,54 @@
         <v>13</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="J49" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="B50" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>44</v>
@@ -4330,7 +4615,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
@@ -4339,26 +4624,26 @@
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="29" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1">
       <c r="A53" s="16" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4366,28 +4651,28 @@
         <v>22</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4395,54 +4680,54 @@
         <v>13</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F55" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="G55" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="J55" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>44</v>
@@ -4453,7 +4738,7 @@
         <v>48</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
@@ -4462,21 +4747,21 @@
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1">
       <c r="A59" s="16" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4484,25 +4769,25 @@
         <v>22</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4510,48 +4795,48 @@
         <v>13</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="F61" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="I61" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="B62" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>44</v>
@@ -4562,7 +4847,7 @@
         <v>48</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D63" s="76"/>
       <c r="E63" s="11"/>
@@ -4570,26 +4855,26 @@
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="29" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="2" customFormat="1">
       <c r="A66" s="8" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4597,37 +4882,37 @@
         <v>22</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>402</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4635,42 +4920,42 @@
         <v>13</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="H68" s="30" t="s">
+        <v>403</v>
       </c>
       <c r="I68" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="J68" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="M68" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="B69" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>43</v>
@@ -4682,25 +4967,25 @@
         <v>43</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>230</v>
+        <v>220</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>404</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="M69" s="11" t="s">
         <v>44</v>
@@ -4711,7 +4996,7 @@
         <v>48</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="10"/>
@@ -4723,26 +5008,26 @@
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
       <c r="M70" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="29" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="55" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4750,25 +5035,25 @@
         <v>22</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4776,48 +5061,48 @@
         <v>13</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="F74" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="B75" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>44</v>
@@ -4828,7 +5113,7 @@
         <v>48</v>
       </c>
       <c r="C76" s="77" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D76" s="78"/>
       <c r="E76" s="11"/>
@@ -4836,7 +5121,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4852,10 +5137,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48:O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4863,7 +5148,7 @@
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
@@ -4887,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>400</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
@@ -4895,13 +5180,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>155</v>
+        <v>251</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1">
@@ -4909,7 +5191,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1">
@@ -4922,55 +5204,60 @@
     </row>
     <row r="6" spans="1:15" s="34" customFormat="1">
       <c r="A6" s="12" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>446</v>
-      </c>
-      <c r="D6" s="54"/>
+        <v>374</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="50" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>393</v>
+        <v>323</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>389</v>
+        <v>319</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>387</v>
+        <v>317</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>386</v>
+        <v>316</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>385</v>
+        <v>315</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4978,43 +5265,43 @@
         <v>13</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>381</v>
+        <v>311</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>382</v>
+        <v>312</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>383</v>
+        <v>313</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5022,43 +5309,43 @@
         <v>16</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>395</v>
+        <v>325</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>392</v>
+        <v>322</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>391</v>
+        <v>321</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>388</v>
+        <v>318</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>384</v>
+        <v>314</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>384</v>
+        <v>314</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>44</v>
+        <v>295</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5078,60 +5365,66 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1"/>
     <row r="12" spans="1:15" s="49" customFormat="1">
       <c r="A12" s="56" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>445</v>
+        <v>373</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="50" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>398</v>
+        <v>328</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>402</v>
+        <v>332</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>401</v>
+        <v>331</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>387</v>
+        <v>317</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -5139,43 +5432,43 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>397</v>
+        <v>327</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>399</v>
+        <v>329</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>404</v>
+        <v>334</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>408</v>
+        <v>338</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>449</v>
+        <v>377</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>409</v>
+        <v>339</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>381</v>
+        <v>311</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -5186,40 +5479,40 @@
         <v>16</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>407</v>
+        <v>337</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>407</v>
+        <v>337</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>407</v>
+        <v>337</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>384</v>
+        <v>314</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>44</v>
+        <v>295</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -5228,7 +5521,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -5241,65 +5534,71 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="6" customFormat="1">
       <c r="A18" s="16" t="s">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>448</v>
+        <v>376</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>408</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="B19" s="50" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>414</v>
+        <v>344</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>415</v>
+        <v>345</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>416</v>
+        <v>346</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>417</v>
+        <v>347</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>419</v>
+        <v>349</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>418</v>
+        <v>348</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>4</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -5307,49 +5606,49 @@
         <v>13</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>411</v>
+        <v>341</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>432</v>
+        <v>360</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>433</v>
+        <v>361</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>434</v>
+        <v>362</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>435</v>
+        <v>363</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>436</v>
+        <v>364</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>437</v>
+        <v>365</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>438</v>
+        <v>366</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>439</v>
+        <v>367</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M20" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="N20" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -5363,43 +5662,43 @@
         <v>16</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>441</v>
+        <v>369</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>407</v>
+        <v>337</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>442</v>
+        <v>370</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>443</v>
+        <v>371</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>444</v>
+        <v>372</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>442</v>
+        <v>370</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>44</v>
+        <v>295</v>
+      </c>
+      <c r="Q21" s="30" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -5421,58 +5720,63 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1"/>
     <row r="24" spans="1:17" s="4" customFormat="1">
       <c r="A24" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="D24" s="53"/>
+      <c r="C24" s="81" t="s">
+        <v>408</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="25" spans="1:17">
       <c r="B25" s="50" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>421</v>
+        <v>351</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>430</v>
+        <v>358</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>422</v>
+        <v>352</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>423</v>
+        <v>353</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>4</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5480,40 +5784,40 @@
         <v>13</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>411</v>
+        <v>341</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>426</v>
+        <v>354</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>431</v>
+        <v>359</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>427</v>
+        <v>355</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>428</v>
+        <v>356</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>429</v>
+        <v>357</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>367</v>
+        <v>301</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -5539,22 +5843,22 @@
         <v>16</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>44</v>
+        <v>295</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -5573,87 +5877,756 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1"/>
     <row r="30" spans="1:17" s="1" customFormat="1"/>
-    <row r="31" spans="1:17" s="49" customFormat="1">
-      <c r="A31" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="B31" s="16"/>
+    <row r="31" spans="1:17" s="80" customFormat="1">
+      <c r="A31" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="79" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="81" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
+      <c r="B32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
+      <c r="B33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="L33" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="M33" s="50" t="s">
+        <v>381</v>
+      </c>
+      <c r="N33" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="O33" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="P33" s="30" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="B34" s="11"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
+      <c r="B34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="P34" s="30" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-    </row>
-    <row r="36" spans="1:16" s="58" customFormat="1">
-      <c r="A36" s="57"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="80" customFormat="1">
+      <c r="A37" s="55" t="s">
+        <v>413</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="81" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="B38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="B39" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>435</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="I39" s="50" t="s">
+        <v>381</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="L39" s="30" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="B40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="L40" s="30" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="B41" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="43" spans="1:16" s="6" customFormat="1">
+      <c r="A43" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="B44" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="I44" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="J44" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="B45" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G45" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="H45" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="I45" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="J45" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="L45" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="M45" s="50" t="s">
+        <v>381</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="P45" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="B46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="J46" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="P46" s="30" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="B47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="49" spans="1:15" s="6" customFormat="1">
+      <c r="A49" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="B50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="G50" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="H50" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="I50" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="B51" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="H51" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="J51" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="K51" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="L51" s="50" t="s">
+        <v>381</v>
+      </c>
+      <c r="M51" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="N51" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="O51" s="30" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="B52" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="H52" s="85" t="s">
+        <v>398</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="O52" s="30" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="B53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H53" s="51"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="6" customFormat="1">
+      <c r="A55" s="84" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55" s="83" t="s">
+        <v>414</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="B56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="B57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="B58" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="B59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5666,8 +6639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B47" sqref="A46:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5719,10 +6692,10 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="29" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>361</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
@@ -5801,7 +6774,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -5850,7 +6823,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>33</v>
+        <v>388</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>34</v>
@@ -5938,13 +6911,13 @@
         <v>49</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>50</v>
+        <v>386</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -5952,57 +6925,57 @@
         <v>10</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>31</v>
       </c>
       <c r="H23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="J23" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="B24" s="10" t="s">
-        <v>13</v>
+        <v>387</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>58</v>
+        <v>389</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>59</v>
+        <v>390</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>60</v>
+        <v>391</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>61</v>
+        <v>392</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>63</v>
+        <v>393</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>396</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>64</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -6016,7 +6989,7 @@
         <v>44</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>17</v>
@@ -6025,10 +6998,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>17</v>
+        <v>395</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>43</v>
@@ -6039,7 +7012,7 @@
         <v>48</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -6057,16 +7030,16 @@
     </row>
     <row r="28" spans="1:15" s="6" customFormat="1">
       <c r="A28" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -6074,43 +7047,43 @@
         <v>10</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="M29" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="N29" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="O29" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -6118,43 +7091,43 @@
         <v>13</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="K30" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="L30" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="M30" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="N30" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="M30" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>94</v>
-      </c>
       <c r="O30" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -6168,22 +7141,22 @@
         <v>44</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K31" s="11" t="s">
         <v>44</v>
@@ -6192,10 +7165,10 @@
         <v>44</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N31" s="22" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O31" s="11" t="s">
         <v>17</v>
@@ -6206,7 +7179,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -6227,21 +7200,21 @@
     </row>
     <row r="35" spans="1:18" s="20" customFormat="1">
       <c r="A35" s="20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="24" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -6249,52 +7222,52 @@
         <v>22</v>
       </c>
       <c r="C37" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="K37" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="L37" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="M37" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="N37" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="O37" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="P37" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="Q37" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O37" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="P37" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q37" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="R37" s="11" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -6302,52 +7275,52 @@
         <v>13</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -6355,34 +7328,34 @@
         <v>16</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M39" s="11" t="s">
         <v>44</v>
@@ -6391,16 +7364,16 @@
         <v>44</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -6429,13 +7402,13 @@
         <v>49</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -6443,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -6472,28 +7445,28 @@
         <v>13</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -6507,7 +7480,7 @@
         <v>44</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>44</v>
@@ -6516,10 +7489,10 @@
         <v>44</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>17</v>
@@ -6530,7 +7503,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -6544,21 +7517,21 @@
     </row>
     <row r="49" spans="1:8" s="20" customFormat="1">
       <c r="A49" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="24" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6569,19 +7542,19 @@
         <v>32</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6592,19 +7565,19 @@
         <v>42</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6612,22 +7585,22 @@
         <v>16</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6650,10 +7623,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6680,809 +7653,320 @@
     <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1">
-      <c r="A4"/>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:16" s="58" customFormat="1">
-      <c r="A5" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" s="59"/>
-    </row>
-    <row r="6" spans="1:16" s="34" customFormat="1">
-      <c r="A6" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="B7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>276</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="B9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="B10" s="10" t="s">
-        <v>48</v>
-      </c>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="58" customFormat="1">
+      <c r="A5" s="57"/>
+    </row>
+    <row r="6" spans="1:7" s="49" customFormat="1">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="4" customFormat="1"/>
-    <row r="12" spans="1:16" s="4" customFormat="1">
-      <c r="A12" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>303</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="J13" s="50" t="s">
-        <v>305</v>
-      </c>
-      <c r="K13" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="L13" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="M13" s="50" t="s">
-        <v>306</v>
-      </c>
-      <c r="N13" s="50" t="s">
-        <v>307</v>
-      </c>
-      <c r="O13" s="50" t="s">
-        <v>308</v>
-      </c>
-      <c r="P13" s="50" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>310</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="J14" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="K14" s="50" t="s">
-        <v>276</v>
-      </c>
-      <c r="L14" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="M14" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="N14" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="O14" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="P14" s="50" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16" s="10" t="s">
-        <v>48</v>
-      </c>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-    </row>
-    <row r="17" spans="1:20" s="1" customFormat="1"/>
-    <row r="18" spans="1:20" s="1" customFormat="1"/>
-    <row r="19" spans="1:20" s="49" customFormat="1">
-      <c r="A19" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>425</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="B20" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>326</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="I20" s="50" t="s">
-        <v>331</v>
-      </c>
-      <c r="J20" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="K20" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="L20" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="M20" s="50" t="s">
-        <v>305</v>
-      </c>
-      <c r="N20" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="O20" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="P20" s="50" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q20" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="R20" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="S20" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="T20" s="50" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="B21" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>312</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>313</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>314</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>315</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>317</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>318</v>
-      </c>
-      <c r="J21" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="K21" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="L21" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="M21" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="N21" s="50" t="s">
-        <v>276</v>
-      </c>
-      <c r="O21" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="P21" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q21" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="R21" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="S21" s="50" t="s">
-        <v>323</v>
-      </c>
-      <c r="T21" s="50" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="B22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="B23" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-    </row>
-    <row r="24" spans="1:20" s="1" customFormat="1"/>
-    <row r="25" spans="1:20" s="58" customFormat="1">
-      <c r="A25" s="57" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="49" customFormat="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="24" spans="1:8" s="6" customFormat="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="B28" s="11"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="B29" s="11"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="32" spans="1:20" s="6" customFormat="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="30" spans="1:8" s="6" customFormat="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="B33" s="11"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="B34" s="11"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="38" spans="1:8" s="6" customFormat="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" s="10"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="37" spans="1:11" s="34" customFormat="1">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" s="11"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="B39" s="11"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="11"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" s="10"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="10"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="44" spans="1:8" s="6" customFormat="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="H41" s="10"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="B44" s="11"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="B45" s="11"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:11">
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="10"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="50" spans="1:11" s="6" customFormat="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="B51" s="11"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="B54" s="10"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="57" spans="1:11" s="34" customFormat="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="B58" s="11"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="B60" s="11"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="11"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="B64" s="11"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="10"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47" s="10"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7527,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1">
@@ -7535,13 +8019,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1">
@@ -7549,7 +8033,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>359</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1">
@@ -8101,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1">
@@ -8109,13 +8593,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1">
@@ -8123,7 +8607,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>359</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1">

--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="455">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -999,12 +999,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TABLE_NAME</t>
-  </si>
-  <si>
-    <t>TABLE_DESC</t>
-  </si>
-  <si>
     <t>唯一id</t>
   </si>
   <si>
@@ -1019,9 +1013,6 @@
   <si>
     <t>空间大小</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLD_TYPE</t>
   </si>
   <si>
     <t>列类型</t>
@@ -1697,10 +1688,6 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>discription</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1930,10 +1917,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>字段展示时排序</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1954,39 +1937,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>uuid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE_NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE_CLASS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE_ORDER</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>discription</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE_UUID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_ROWS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_SPACE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_ORDER</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2025,10 +1976,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>COLS_DESC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>varchar（</t>
     </r>
@@ -2053,14 +2000,6 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLD_LENGTH</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLS_ORDER</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2099,6 +2038,74 @@
       </rPr>
       <t>type</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>create_user</t>
+  </si>
+  <si>
+    <t>updata_time</t>
+  </si>
+  <si>
+    <t>updata_user</t>
+  </si>
+  <si>
+    <t>delete_flag</t>
+  </si>
+  <si>
+    <t>type_name</t>
+  </si>
+  <si>
+    <t>type_class</t>
+  </si>
+  <si>
+    <t>type_order</t>
+  </si>
+  <si>
+    <t>database_uuid</t>
+  </si>
+  <si>
+    <t>table_disc</t>
+  </si>
+  <si>
+    <t>type_uuid</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>table_desc</t>
+  </si>
+  <si>
+    <t>table_rows</t>
+  </si>
+  <si>
+    <t>table_space</t>
+  </si>
+  <si>
+    <t>table_order</t>
+  </si>
+  <si>
+    <t>cols_desc</t>
+  </si>
+  <si>
+    <t>cold_type</t>
+  </si>
+  <si>
+    <t>cold_length</t>
+  </si>
+  <si>
+    <t>cols_order</t>
+  </si>
+  <si>
+    <t>type_icon</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2629,7 +2636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2825,6 +2832,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2867,26 +2895,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3239,41 +3252,41 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="33"/>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="34"/>
       <c r="J4" s="33"/>
       <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="33"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="34"/>
       <c r="J5" s="33"/>
       <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="33"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="34"/>
       <c r="J6" s="33"/>
       <c r="K6" s="34"/>
@@ -3307,11 +3320,11 @@
     <row r="9" spans="1:11">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="33"/>
@@ -3358,26 +3371,26 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="33"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
       <c r="I13" s="34"/>
       <c r="J13" s="33"/>
       <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" thickBot="1">
       <c r="A14" s="33"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
       <c r="I14" s="34"/>
       <c r="J14" s="33"/>
       <c r="K14" s="34"/>
@@ -3410,26 +3423,26 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="33"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
       <c r="I17" s="34"/>
       <c r="J17" s="33"/>
       <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" thickBot="1">
       <c r="A18" s="33"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="34"/>
       <c r="J18" s="33"/>
       <c r="K18" s="34"/>
@@ -3749,10 +3762,10 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
       <c r="A4" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1">
@@ -3773,7 +3786,7 @@
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1">
       <c r="A9" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B9"/>
     </row>
@@ -3808,13 +3821,13 @@
         <v>155</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>156</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>157</v>
@@ -3840,30 +3853,30 @@
         <v>162</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="29" customFormat="1">
       <c r="B13" s="30" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>123</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>43</v>
@@ -3872,13 +3885,13 @@
         <v>145</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>145</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>44</v>
@@ -3902,16 +3915,16 @@
     <row r="15" spans="1:13" s="64" customFormat="1"/>
     <row r="16" spans="1:13" s="2" customFormat="1">
       <c r="A16" s="61" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -3919,13 +3932,13 @@
         <v>22</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>154</v>
@@ -3934,13 +3947,13 @@
         <v>155</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>156</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>157</v>
@@ -3951,45 +3964,45 @@
         <v>235</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>162</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="B19" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>123</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>43</v>
@@ -3998,13 +4011,13 @@
         <v>145</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>145</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>44</v>
@@ -4067,13 +4080,13 @@
         <v>155</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>156</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>157</v>
@@ -4084,7 +4097,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>172</v>
@@ -4093,39 +4106,39 @@
         <v>173</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>161</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="B25" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>43</v>
@@ -4143,13 +4156,13 @@
         <v>145</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>145</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>44</v>
@@ -4180,7 +4193,7 @@
     <row r="27" spans="1:13" s="1" customFormat="1"/>
     <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1">
@@ -4211,13 +4224,13 @@
         <v>155</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>157</v>
@@ -4234,24 +4247,24 @@
         <v>238</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F31" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="B32" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>43</v>
@@ -4263,13 +4276,13 @@
         <v>145</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>44</v>
@@ -4318,13 +4331,13 @@
         <v>155</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>157</v>
@@ -4341,24 +4354,24 @@
         <v>183</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>43</v>
@@ -4370,13 +4383,13 @@
         <v>145</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>44</v>
@@ -4424,13 +4437,13 @@
         <v>155</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>157</v>
@@ -4447,27 +4460,27 @@
         <v>244</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>43</v>
@@ -4476,13 +4489,13 @@
         <v>145</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>44</v>
@@ -4506,7 +4519,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="29" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="6" customFormat="1">
@@ -4540,13 +4553,13 @@
         <v>155</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>156</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>157</v>
@@ -4566,27 +4579,27 @@
         <v>191</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J49" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="B50" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>43</v>
@@ -4598,13 +4611,13 @@
         <v>145</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>145</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>44</v>
@@ -4629,7 +4642,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="29" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1">
@@ -4663,13 +4676,13 @@
         <v>155</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>156</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>157</v>
@@ -4689,27 +4702,27 @@
         <v>200</v>
       </c>
       <c r="F55" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G55" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J55" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>43</v>
@@ -4721,13 +4734,13 @@
         <v>145</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>145</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>44</v>
@@ -4778,13 +4791,13 @@
         <v>155</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>157</v>
@@ -4801,42 +4814,42 @@
         <v>207</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F61" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I61" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="B62" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>145</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>44</v>
@@ -4846,10 +4859,10 @@
       <c r="B63" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="75" t="s">
+      <c r="C63" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="D63" s="76"/>
+      <c r="D63" s="83"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
@@ -4860,7 +4873,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="29" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="2" customFormat="1">
@@ -4897,19 +4910,19 @@
         <v>214</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>155</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>156</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M67" s="10" t="s">
         <v>157</v>
@@ -4935,27 +4948,27 @@
         <v>219</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I68" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J68" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M68" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="B69" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>43</v>
@@ -4973,19 +4986,19 @@
         <v>220</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>145</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>145</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M69" s="11" t="s">
         <v>44</v>
@@ -5013,12 +5026,12 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="55" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>222</v>
@@ -5044,13 +5057,13 @@
         <v>155</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>156</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>157</v>
@@ -5067,42 +5080,42 @@
         <v>226</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F74" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="B75" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>145</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>44</v>
@@ -5112,10 +5125,10 @@
       <c r="B76" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="77" t="s">
+      <c r="C76" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="D76" s="78"/>
+      <c r="D76" s="85"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -5139,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48:O49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5172,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
@@ -5191,7 +5204,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1">
@@ -5204,42 +5217,42 @@
     </row>
     <row r="6" spans="1:15" s="34" customFormat="1">
       <c r="A6" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6" s="80" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="81" t="s">
-        <v>405</v>
+      <c r="D6" s="67" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>4</v>
@@ -5248,13 +5261,13 @@
         <v>155</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>156</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>157</v>
@@ -5265,43 +5278,43 @@
         <v>13</v>
       </c>
       <c r="C8" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="G8" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="H8" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="I8" s="50" t="s">
         <v>310</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>312</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>313</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>161</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5309,25 +5322,25 @@
         <v>16</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>92</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>163</v>
@@ -5336,16 +5349,16 @@
         <v>145</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5371,42 +5384,42 @@
     <row r="11" spans="1:15" s="4" customFormat="1"/>
     <row r="12" spans="1:15" s="49" customFormat="1">
       <c r="A12" s="56" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>373</v>
-      </c>
-      <c r="C12" s="80" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="82" t="s">
-        <v>406</v>
+      <c r="D12" s="68" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>331</v>
-      </c>
       <c r="I13" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>4</v>
@@ -5415,13 +5428,13 @@
         <v>155</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>156</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>157</v>
@@ -5432,43 +5445,43 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>161</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -5479,19 +5492,19 @@
         <v>16</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>92</v>
@@ -5503,16 +5516,16 @@
         <v>145</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -5521,7 +5534,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -5539,48 +5552,48 @@
     </row>
     <row r="18" spans="1:17" s="6" customFormat="1">
       <c r="A18" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>408</v>
+        <v>373</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>404</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="B19" s="50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="I19" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>350</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>4</v>
@@ -5589,13 +5602,13 @@
         <v>155</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O19" s="10" t="s">
         <v>156</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>157</v>
@@ -5606,49 +5619,49 @@
         <v>13</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="I20" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="J20" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>367</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>161</v>
       </c>
       <c r="M20" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N20" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -5662,25 +5675,25 @@
         <v>16</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>372</v>
-      </c>
       <c r="K21" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>163</v>
@@ -5689,16 +5702,16 @@
         <v>145</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>145</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q21" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -5726,39 +5739,39 @@
     <row r="23" spans="1:17" s="1" customFormat="1"/>
     <row r="24" spans="1:17" s="4" customFormat="1">
       <c r="A24" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="C24" s="81" t="s">
-        <v>408</v>
+        <v>372</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>404</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="B25" s="50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>4</v>
@@ -5767,13 +5780,13 @@
         <v>155</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>156</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>157</v>
@@ -5784,40 +5797,40 @@
         <v>13</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>354</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>355</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>357</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>161</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -5849,16 +5862,16 @@
         <v>145</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>145</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -5882,18 +5895,18 @@
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1"/>
     <row r="30" spans="1:17" s="1" customFormat="1"/>
-    <row r="31" spans="1:17" s="80" customFormat="1">
-      <c r="A31" s="79" t="s">
+    <row r="31" spans="1:17" s="66" customFormat="1">
+      <c r="A31" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="79" t="s">
-        <v>268</v>
-      </c>
-      <c r="C31" s="80" t="s">
+      <c r="B31" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="81" t="s">
-        <v>410</v>
+      <c r="D31" s="67" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5931,16 +5944,16 @@
         <v>155</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>156</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -5948,7 +5961,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>34</v>
@@ -5972,22 +5985,22 @@
         <v>40</v>
       </c>
       <c r="K33" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="L33" s="50" t="s">
+        <v>377</v>
+      </c>
+      <c r="M33" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="N33" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="L33" s="50" t="s">
+      <c r="O33" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="M33" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="N33" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="O33" s="30" t="s">
-        <v>383</v>
-      </c>
       <c r="P33" s="30" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -6025,16 +6038,16 @@
         <v>145</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>145</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P34" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -6058,18 +6071,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="80" customFormat="1">
+    <row r="37" spans="1:16" s="66" customFormat="1">
       <c r="A37" s="55" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>401</v>
-      </c>
-      <c r="C37" s="80" t="s">
+        <v>397</v>
+      </c>
+      <c r="C37" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="81" t="s">
-        <v>411</v>
+      <c r="D37" s="67" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -6087,55 +6100,61 @@
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="I38" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="I38" s="10" t="s">
-        <v>294</v>
-      </c>
       <c r="J38" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="K38" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="K38" s="10" t="s">
-        <v>296</v>
-      </c>
       <c r="L38" s="10" t="s">
-        <v>384</v>
+        <v>293</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="B39" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>433</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>434</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>435</v>
+        <v>235</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>441</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="K39" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="H39" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="I39" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="K39" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="L39" s="30" t="s">
-        <v>400</v>
+      <c r="L39" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -6149,26 +6168,29 @@
         <v>258</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>426</v>
+        <v>367</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="10" t="s">
         <v>163</v>
       </c>
       <c r="H40" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="I40" s="10" t="s">
-        <v>295</v>
-      </c>
       <c r="J40" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="K40" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="L40" s="30" t="s">
-        <v>398</v>
+      <c r="L40" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="M40" s="30" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -6184,7 +6206,8 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="11"/>
+      <c r="M41" s="11" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6194,7 +6217,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>8</v>
@@ -6211,7 +6234,7 @@
         <v>51</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>232</v>
@@ -6220,13 +6243,13 @@
         <v>52</v>
       </c>
       <c r="G44" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="I44" s="50" t="s">
         <v>263</v>
-      </c>
-      <c r="H44" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="I44" s="50" t="s">
-        <v>265</v>
       </c>
       <c r="J44" s="50" t="s">
         <v>256</v>
@@ -6238,63 +6261,63 @@
         <v>155</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>156</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="86" customFormat="1">
       <c r="B45" s="10" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="D45" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>444</v>
+      </c>
+      <c r="E45" s="87" t="s">
+        <v>445</v>
+      </c>
+      <c r="F45" s="87" t="s">
+        <v>443</v>
+      </c>
+      <c r="G45" s="87" t="s">
+        <v>446</v>
+      </c>
+      <c r="H45" s="87" t="s">
+        <v>447</v>
+      </c>
+      <c r="I45" s="87" t="s">
+        <v>448</v>
+      </c>
+      <c r="J45" s="87" t="s">
+        <v>449</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="O45" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="E45" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="G45" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="H45" s="50" t="s">
+      <c r="P45" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="I45" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="J45" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="K45" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="L45" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="M45" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="N45" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="O45" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="P45" s="30" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -6323,7 +6346,7 @@
         <v>175</v>
       </c>
       <c r="J46" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>163</v>
@@ -6332,16 +6355,16 @@
         <v>145</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>145</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -6372,14 +6395,14 @@
       <c r="A49" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="83" t="s">
-        <v>441</v>
+      <c r="B49" s="69" t="s">
+        <v>428</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -6393,19 +6416,19 @@
         <v>65</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F50" s="50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G50" s="50" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H50" s="50" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="I50" s="30" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>4</v>
@@ -6414,60 +6437,60 @@
         <v>155</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M50" s="10" t="s">
         <v>156</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="B51" s="30" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F51" s="50" t="s">
-        <v>266</v>
+        <v>451</v>
       </c>
       <c r="G51" s="50" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="H51" s="50" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="I51" s="30" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="J51" s="30" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="K51" s="50" t="s">
+        <v>377</v>
+      </c>
+      <c r="L51" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="M51" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="N51" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="L51" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="M51" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="N51" s="30" t="s">
-        <v>383</v>
-      </c>
       <c r="O51" s="30" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -6481,16 +6504,16 @@
         <v>44</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>145</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="H52" s="85" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="H52" s="71" t="s">
+        <v>395</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>89</v>
@@ -6502,16 +6525,16 @@
         <v>145</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M52" s="10" t="s">
         <v>145</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O52" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -6539,17 +6562,17 @@
       </c>
     </row>
     <row r="55" spans="1:15" s="6" customFormat="1">
-      <c r="A55" s="84" t="s">
-        <v>415</v>
-      </c>
-      <c r="B55" s="83" t="s">
-        <v>414</v>
+      <c r="A55" s="70" t="s">
+        <v>411</v>
+      </c>
+      <c r="B55" s="69" t="s">
+        <v>410</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -6560,17 +6583,17 @@
         <v>64</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="30" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -6581,17 +6604,17 @@
         <v>76</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="30" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -6605,14 +6628,14 @@
         <v>44</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -6692,10 +6715,10 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
@@ -6774,7 +6797,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -6823,7 +6846,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>34</v>
@@ -6911,7 +6934,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>8</v>
@@ -6951,31 +6974,31 @@
     </row>
     <row r="24" spans="1:15">
       <c r="B24" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="E24" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="G24" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="H24" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="I24" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="J24" s="11" t="s">
         <v>394</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -6998,7 +7021,7 @@
         <v>17</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>59</v>
@@ -7062,7 +7085,7 @@
         <v>68</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>69</v>
@@ -7869,8 +7892,8 @@
     </row>
     <row r="34" spans="1:11">
       <c r="B34" s="10"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -7957,8 +7980,8 @@
     </row>
     <row r="47" spans="1:11">
       <c r="B47" s="10"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="78"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="85"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -8033,7 +8056,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1">
@@ -8443,8 +8466,8 @@
     </row>
     <row r="54" spans="1:11">
       <c r="B54" s="10"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="76"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="83"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -8531,8 +8554,8 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="10"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="78"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
@@ -8607,7 +8630,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1">
@@ -9017,8 +9040,8 @@
     </row>
     <row r="54" spans="1:11">
       <c r="B54" s="10"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="76"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="83"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -9105,8 +9128,8 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="10"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="78"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>

--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="474">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -1394,10 +1394,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>roler_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>规则id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1434,42 +1430,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>规则列id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>表id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>列id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>roler_colum_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tables_uuid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>colums_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>colum_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则列名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>roler_colum_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>colum_name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1522,19 +1490,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sys_seed_roler_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_seed_url_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_seed_result_roler_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_seed_roler_colum_info</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2107,6 +2063,126 @@
   <si>
     <t>type_icon</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_ruler_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_ruler_colum_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruler_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruler_colum_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruler_colum_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cols_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_seed_result_ruler_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruler_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cols_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>discription</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>updata_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>updata_user</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则列名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则列id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2853,6 +2929,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2894,12 +2976,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3252,41 +3328,41 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="33"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="34"/>
       <c r="J4" s="33"/>
       <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="33"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="34"/>
       <c r="J5" s="33"/>
       <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="33"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
       <c r="I6" s="34"/>
       <c r="J6" s="33"/>
       <c r="K6" s="34"/>
@@ -3320,11 +3396,11 @@
     <row r="9" spans="1:11">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="33"/>
@@ -3371,26 +3447,26 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="33"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="34"/>
       <c r="J13" s="33"/>
       <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" thickBot="1">
       <c r="A14" s="33"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="34"/>
       <c r="J14" s="33"/>
       <c r="K14" s="34"/>
@@ -3423,26 +3499,26 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="33"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="34"/>
       <c r="J17" s="33"/>
       <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" thickBot="1">
       <c r="A18" s="33"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="34"/>
       <c r="J18" s="33"/>
       <c r="K18" s="34"/>
@@ -4859,10 +4935,10 @@
       <c r="B63" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="82" t="s">
+      <c r="C63" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="D63" s="83"/>
+      <c r="D63" s="85"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
@@ -4910,7 +4986,7 @@
         <v>214</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>155</v>
@@ -4948,7 +5024,7 @@
         <v>219</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="I68" s="50" t="s">
         <v>299</v>
@@ -4986,7 +5062,7 @@
         <v>220</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>145</v>
@@ -5125,10 +5201,10 @@
       <c r="B76" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="84" t="s">
+      <c r="C76" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="D76" s="85"/>
+      <c r="D76" s="87"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -5152,8 +5228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5220,13 +5296,13 @@
         <v>300</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5358,7 +5434,7 @@
         <v>292</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5387,13 +5463,13 @@
         <v>301</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>370</v>
+        <v>445</v>
       </c>
       <c r="C12" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5413,7 +5489,7 @@
         <v>330</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>328</v>
@@ -5457,7 +5533,7 @@
         <v>335</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>336</v>
@@ -5525,7 +5601,7 @@
         <v>292</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -5555,13 +5631,13 @@
         <v>337</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>373</v>
+        <v>446</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -5569,31 +5645,31 @@
         <v>259</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I19" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>346</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>347</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>4</v>
@@ -5619,31 +5695,31 @@
         <v>13</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>338</v>
+        <v>447</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>161</v>
@@ -5675,25 +5751,25 @@
         <v>16</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>163</v>
@@ -5711,7 +5787,7 @@
         <v>292</v>
       </c>
       <c r="Q21" s="30" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -5742,95 +5818,101 @@
         <v>302</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>372</v>
+        <v>451</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="B25" s="50" t="s">
-        <v>259</v>
+        <v>452</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>348</v>
+        <v>472</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>355</v>
+        <v>471</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>340</v>
+        <v>469</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>155</v>
+        <v>467</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>291</v>
+        <v>466</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>156</v>
+        <v>465</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>293</v>
+        <v>464</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>157</v>
+        <v>463</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="B26" s="50" t="s">
-        <v>13</v>
+        <v>453</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>338</v>
+        <v>454</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>351</v>
+        <v>448</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>356</v>
+        <v>449</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>353</v>
+        <v>444</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>354</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J26" s="50" t="s">
-        <v>299</v>
+        <v>455</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>456</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>380</v>
+        <v>457</v>
+      </c>
+      <c r="L26" s="50" t="s">
+        <v>458</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>459</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>285</v>
+        <v>460</v>
+      </c>
+      <c r="O26" s="30" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -5855,23 +5937,26 @@
       <c r="H27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="K27" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="L27" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="N27" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="N27" s="30" t="s">
-        <v>395</v>
+      <c r="O27" s="30" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -5889,7 +5974,8 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="11" t="s">
+      <c r="N28" s="11"/>
+      <c r="O28" s="11" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5906,7 +5992,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5953,7 +6039,7 @@
         <v>293</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -5961,7 +6047,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>34</v>
@@ -5985,22 +6071,22 @@
         <v>40</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="L33" s="50" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="M33" s="50" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="N33" s="30" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="O33" s="30" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="P33" s="30" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -6047,7 +6133,7 @@
         <v>292</v>
       </c>
       <c r="P34" s="30" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -6073,16 +6159,16 @@
     </row>
     <row r="37" spans="1:16" s="66" customFormat="1">
       <c r="A37" s="55" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -6100,7 +6186,7 @@
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="10" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>4</v>
@@ -6118,7 +6204,7 @@
         <v>293</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -6126,35 +6212,35 @@
         <v>235</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="30" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>161</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -6168,7 +6254,7 @@
         <v>258</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="10" t="s">
@@ -6190,7 +6276,7 @@
         <v>292</v>
       </c>
       <c r="M40" s="30" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -6217,7 +6303,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>8</v>
@@ -6270,54 +6356,54 @@
         <v>293</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="86" customFormat="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="72" customFormat="1">
       <c r="B45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="D45" s="87" t="s">
-        <v>444</v>
-      </c>
-      <c r="E45" s="87" t="s">
-        <v>445</v>
-      </c>
-      <c r="F45" s="87" t="s">
-        <v>443</v>
-      </c>
-      <c r="G45" s="87" t="s">
-        <v>446</v>
-      </c>
-      <c r="H45" s="87" t="s">
-        <v>447</v>
-      </c>
-      <c r="I45" s="87" t="s">
-        <v>448</v>
-      </c>
-      <c r="J45" s="87" t="s">
-        <v>449</v>
+        <v>431</v>
+      </c>
+      <c r="D45" s="73" t="s">
+        <v>433</v>
+      </c>
+      <c r="E45" s="73" t="s">
+        <v>434</v>
+      </c>
+      <c r="F45" s="73" t="s">
+        <v>432</v>
+      </c>
+      <c r="G45" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="H45" s="73" t="s">
+        <v>436</v>
+      </c>
+      <c r="I45" s="73" t="s">
+        <v>437</v>
+      </c>
+      <c r="J45" s="73" t="s">
+        <v>438</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>161</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -6346,7 +6432,7 @@
         <v>175</v>
       </c>
       <c r="J46" s="30" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>163</v>
@@ -6364,7 +6450,7 @@
         <v>292</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -6396,13 +6482,13 @@
         <v>61</v>
       </c>
       <c r="B49" s="69" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -6416,19 +6502,19 @@
         <v>65</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="F50" s="50" t="s">
         <v>264</v>
       </c>
       <c r="G50" s="50" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="H50" s="50" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="I50" s="30" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>4</v>
@@ -6446,51 +6532,51 @@
         <v>293</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="B51" s="30" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="F51" s="50" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="G51" s="50" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="H51" s="50" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="I51" s="30" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="J51" s="30" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="K51" s="50" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L51" s="50" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="M51" s="30" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="N51" s="30" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="O51" s="30" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -6504,16 +6590,16 @@
         <v>44</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>145</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H52" s="71" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>89</v>
@@ -6534,7 +6620,7 @@
         <v>292</v>
       </c>
       <c r="O52" s="30" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -6563,16 +6649,16 @@
     </row>
     <row r="55" spans="1:15" s="6" customFormat="1">
       <c r="A55" s="70" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B55" s="69" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -6583,17 +6669,17 @@
         <v>64</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="30" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -6604,17 +6690,17 @@
         <v>76</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="30" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -6628,14 +6714,14 @@
         <v>44</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="30" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -6846,7 +6932,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>34</v>
@@ -6934,7 +7020,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>8</v>
@@ -6974,31 +7060,31 @@
     </row>
     <row r="24" spans="1:15">
       <c r="B24" s="10" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -7021,7 +7107,7 @@
         <v>17</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>59</v>
@@ -7085,7 +7171,7 @@
         <v>68</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>69</v>
@@ -7892,8 +7978,8 @@
     </row>
     <row r="34" spans="1:11">
       <c r="B34" s="10"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -7980,8 +8066,8 @@
     </row>
     <row r="47" spans="1:11">
       <c r="B47" s="10"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="85"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="87"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -8466,8 +8552,8 @@
     </row>
     <row r="54" spans="1:11">
       <c r="B54" s="10"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="83"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="85"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -8554,8 +8640,8 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="10"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="85"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="87"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
@@ -9040,8 +9126,8 @@
     </row>
     <row r="54" spans="1:11">
       <c r="B54" s="10"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="83"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="85"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -9128,8 +9214,8 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="10"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="85"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="87"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
